--- a/chemicals.xlsx
+++ b/chemicals.xlsx
@@ -1,30 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrydiazlds/Documents/GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry Diaz\Documents\GitHub\trees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD8BD39-0F29-C643-93A8-B4B9D12A916D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2544CD88-4D0C-427F-8661-73C1D2A00739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12500" yWindow="1180" windowWidth="17140" windowHeight="15820" firstSheet="1" activeTab="3" xr2:uid="{118FF8D9-01A2-4EDD-B152-C200E2DDFF78}"/>
+    <workbookView xWindow="19665" yWindow="2100" windowWidth="30360" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{118FF8D9-01A2-4EDD-B152-C200E2DDFF78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Table 1 (3)" sheetId="5" r:id="rId2"/>
     <sheet name="Table 1" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Table 1 (3)'!$A$1:$B$13</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,14 +52,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -61,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="327">
   <si>
     <t>Product Name</t>
   </si>
@@ -701,59 +714,437 @@
     <t>Boost recover from stress, construction</t>
   </si>
   <si>
-    <t>Mineral oil</t>
-  </si>
-  <si>
-    <t>Sethoxydim</t>
-  </si>
-  <si>
-    <t>Ethephon</t>
-  </si>
-  <si>
-    <t>Ethyl 1-naphthaleneacetate</t>
-  </si>
-  <si>
-    <t>Dithiopyr</t>
-  </si>
-  <si>
-    <t>Prodiamine</t>
-  </si>
-  <si>
-    <t>Propiconazole</t>
-  </si>
-  <si>
-    <t>Imidacloprid</t>
-  </si>
-  <si>
-    <t>Phosphate</t>
-  </si>
-  <si>
-    <t>Soluble Potash</t>
-  </si>
-  <si>
-    <t>Nitrogen</t>
-  </si>
-  <si>
-    <t>Glyphosate</t>
-  </si>
-  <si>
-    <t>Diquat dibromide</t>
-  </si>
-  <si>
-    <t>Emamectin Benzoate</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>active_ingredient</t>
+    <t>brand_name</t>
+  </si>
+  <si>
+    <t>chm_name</t>
+  </si>
+  <si>
+    <t>photo_link</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>epa</t>
+  </si>
+  <si>
+    <t>Scales</t>
+  </si>
+  <si>
+    <t>Barnyardgrass</t>
+  </si>
+  <si>
+    <t>Chickweed</t>
+  </si>
+  <si>
+    <t>Foxtails</t>
+  </si>
+  <si>
+    <t>Goosegrass</t>
+  </si>
+  <si>
+    <t>Henbit</t>
+  </si>
+  <si>
+    <t>Purslane</t>
+  </si>
+  <si>
+    <t>Spurge</t>
+  </si>
+  <si>
+    <t>Annual Bluegrass</t>
+  </si>
+  <si>
+    <t>Burclover</t>
+  </si>
+  <si>
+    <t>Canarygrass</t>
+  </si>
+  <si>
+    <t>Green Foxtail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leafminers</t>
+  </si>
+  <si>
+    <t>Bronze Birch Borer</t>
+  </si>
+  <si>
+    <t>Aphids</t>
+  </si>
+  <si>
+    <t>Elm Leaf Beetles</t>
+  </si>
+  <si>
+    <t>Black Vine Weevil</t>
+  </si>
+  <si>
+    <t>Eucalyptus Longhorned Borer</t>
+  </si>
+  <si>
+    <t>Japanese Beetles</t>
+  </si>
+  <si>
+    <t>Lacebugs</t>
+  </si>
+  <si>
+    <t>Leafhoppers</t>
+  </si>
+  <si>
+    <t>Leafminers</t>
+  </si>
+  <si>
+    <t>Oak Wilt</t>
+  </si>
+  <si>
+    <t>Dutch Elm Disease</t>
+  </si>
+  <si>
+    <t>Powdery Mildew</t>
+  </si>
+  <si>
+    <t>Conifer Blights</t>
+  </si>
+  <si>
+    <t>Flower Blight</t>
+  </si>
+  <si>
+    <t>Rust</t>
+  </si>
+  <si>
+    <t>Whiteflies</t>
+  </si>
+  <si>
+    <t>Fungus Gnats</t>
+  </si>
+  <si>
+    <t>Shore Flies</t>
+  </si>
+  <si>
+    <t>Alder-Birch Borer</t>
+  </si>
+  <si>
+    <t>Flatheaded Borers</t>
+  </si>
+  <si>
+    <t>Emerald Ash Borer</t>
+  </si>
+  <si>
+    <t>Adelgids</t>
+  </si>
+  <si>
+    <t>Hemlock Woolly Adelgids</t>
+  </si>
+  <si>
+    <t>Black Spot</t>
+  </si>
+  <si>
+    <t>Scab</t>
+  </si>
+  <si>
+    <t>Anthracnose</t>
+  </si>
+  <si>
+    <t>Needle Rust</t>
+  </si>
+  <si>
+    <t>Mealybugs</t>
+  </si>
+  <si>
+    <t>Sawfly Larvae</t>
+  </si>
+  <si>
+    <t>Pine Bark Beetles</t>
+  </si>
+  <si>
+    <t>Pine Tip Moth Larvae</t>
+  </si>
+  <si>
+    <t>Psyllids</t>
+  </si>
+  <si>
+    <t>Royal Palm Bugs</t>
+  </si>
+  <si>
+    <t>Soft Scale Insects</t>
+  </si>
+  <si>
+    <t>Spotted Lantern Fly</t>
+  </si>
+  <si>
+    <t>PEST</t>
+  </si>
+  <si>
+    <t>Ambrosia Beetles</t>
+  </si>
+  <si>
+    <t>Pinewood Nematode</t>
+  </si>
+  <si>
+    <t>Bagworm</t>
+  </si>
+  <si>
+    <t>Conifer Mites</t>
+  </si>
+  <si>
+    <t>Cynipid Gall Wasp</t>
+  </si>
+  <si>
+    <t>Fall Webworm</t>
+  </si>
+  <si>
+    <t>Gypsy Moth</t>
+  </si>
+  <si>
+    <t>Honeylocust Plant Bug</t>
+  </si>
+  <si>
+    <t>Japanese Beetle</t>
+  </si>
+  <si>
+    <t>Hymenoptera</t>
+  </si>
+  <si>
+    <t>Lepidoptera)</t>
+  </si>
+  <si>
+    <t>Mimosa Webworm</t>
+  </si>
+  <si>
+    <t>Oak Worm</t>
+  </si>
+  <si>
+    <t>Pine Needle Scale</t>
+  </si>
+  <si>
+    <t>Red Palm Mite</t>
+  </si>
+  <si>
+    <t>Pine)</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Tussock Moth</t>
+  </si>
+  <si>
+    <t>Western Spruce Budworm</t>
+  </si>
+  <si>
+    <t>Winter Moth</t>
+  </si>
+  <si>
+    <t>Armyworms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Caterpillars</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cutworms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fire Ants</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leafroller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thrips</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tent Caterpillars</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and others </t>
+  </si>
+  <si>
+    <t>Caterpillars</t>
+  </si>
+  <si>
+    <t>Cutworms</t>
+  </si>
+  <si>
+    <t>Fire Ants</t>
+  </si>
+  <si>
+    <t>Leafroller</t>
+  </si>
+  <si>
+    <t>Thrips</t>
+  </si>
+  <si>
+    <t>Tent Caterpillars</t>
+  </si>
+  <si>
+    <t>Annual Grasses</t>
+  </si>
+  <si>
+    <t>Apple Trees</t>
+  </si>
+  <si>
+    <t>Bentgrass</t>
+  </si>
+  <si>
+    <t>Borers</t>
+  </si>
+  <si>
+    <t>Broadleaf Weeds</t>
+  </si>
+  <si>
+    <t>Brown Patch</t>
+  </si>
+  <si>
+    <t>Carob Trees</t>
+  </si>
+  <si>
+    <t>Crabapple Trees</t>
+  </si>
+  <si>
+    <t>Crabgrass (Large &amp; Smooth)</t>
+  </si>
+  <si>
+    <t>Dichondra</t>
+  </si>
+  <si>
+    <t>Dollar Spot</t>
+  </si>
+  <si>
+    <t>Dwarf Mistletoe</t>
+  </si>
+  <si>
+    <t>Fescue (Tall And Fine)</t>
+  </si>
+  <si>
+    <t>Fusarium Patch</t>
+  </si>
+  <si>
+    <t>Iron Chlorosis</t>
+  </si>
+  <si>
+    <t>Kentucky Bluegrass</t>
+  </si>
+  <si>
+    <t>Leaf Diseases In Crabapple</t>
+  </si>
+  <si>
+    <t>Leafy Mistletoe</t>
+  </si>
+  <si>
+    <t>Mildew</t>
+  </si>
+  <si>
+    <t>Mites</t>
+  </si>
+  <si>
+    <t>Necrotic Ring Spot</t>
+  </si>
+  <si>
+    <t>Olive Trees</t>
+  </si>
+  <si>
+    <t>Perennial Ryegrass</t>
+  </si>
+  <si>
+    <t>Pink Patch</t>
+  </si>
+  <si>
+    <t>Poa Annua</t>
+  </si>
+  <si>
+    <t>Psylla</t>
+  </si>
+  <si>
+    <t>Ray Blight And Leaf Spot</t>
+  </si>
+  <si>
+    <t>Red Thread</t>
+  </si>
+  <si>
+    <t>Redroot Pigweed</t>
+  </si>
+  <si>
+    <t>Sigatoka</t>
+  </si>
+  <si>
+    <t>Snowmold</t>
+  </si>
+  <si>
+    <t>Spring Dead Spot</t>
+  </si>
+  <si>
+    <t>Streak</t>
+  </si>
+  <si>
+    <t>Stripe Smut</t>
+  </si>
+  <si>
+    <t>Take-All Patch</t>
+  </si>
+  <si>
+    <t>Tip Blight And Leaf Spot.</t>
+  </si>
+  <si>
+    <t>White Clover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Witchgrass And More </t>
+  </si>
+  <si>
+    <t>Yellow Foxtail</t>
+  </si>
+  <si>
+    <t>Zoysia Patch</t>
+  </si>
+  <si>
+    <t>Flatheaded Borers (Such As Adult And Larvae Of Bronze Birch Borer</t>
+  </si>
+  <si>
+    <t>Emerald Ash Borer And Two-Lined Chestnut Borer)</t>
+  </si>
+  <si>
+    <t>Leafminers (Such As Coleoptera</t>
+  </si>
+  <si>
+    <t>Pine Cone Seed Bug (Suppression Of Leptoglossus And Tetyra Spp. In The Year Of Treatment)</t>
+  </si>
+  <si>
+    <t>Pine Coneworm (Dioryctria Spp.)</t>
+  </si>
+  <si>
+    <t>Roundheaded Borers (Excluding Asian Longhorn Beetles)</t>
+  </si>
+  <si>
+    <t>Sawfly (Such As Elm</t>
+  </si>
+  <si>
+    <t>Tent Caterpillars (Such As Eastern</t>
+  </si>
+  <si>
+    <t>Pacific And Western)</t>
+  </si>
+  <si>
+    <t>Cone Beetle</t>
+  </si>
+  <si>
+    <t>Sequoia Pine Pitch Tube Moth</t>
+  </si>
+  <si>
+    <t>Ah Pine Pitch Tube Moth</t>
+  </si>
+  <si>
+    <t>Clearwing Borers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,6 +1163,15 @@
       <color rgb="FF333333"/>
       <name val="Georgia"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFF8F8F2"/>
+      <name val="Fira Code"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Fira Code"/>
     </font>
   </fonts>
   <fills count="4">
@@ -816,21 +1216,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -838,9 +1240,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,8 +1341,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAE85184-9F91-43BC-8C57-2F44BD6796C5}" name="Table1" displayName="Table1" ref="A1:M20" totalsRowShown="0">
-  <autoFilter ref="A1:M20" xr:uid="{BAE85184-9F91-43BC-8C57-2F44BD6796C5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAE85184-9F91-43BC-8C57-2F44BD6796C5}" name="Table1" displayName="Table1" ref="B1:N20" totalsRowShown="0">
+  <autoFilter ref="B1:N20" xr:uid="{BAE85184-9F91-43BC-8C57-2F44BD6796C5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:N20">
+    <sortCondition ref="C1:C20"/>
+  </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{39E33DE7-9A9D-4BB0-957F-F23F855B243D}" name="Category"/>
     <tableColumn id="2" xr3:uid="{0EDB0A58-C446-4194-9270-10926748AD77}" name="Prodcut"/>
@@ -953,11 +1366,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69706B1A-C419-DC49-96CB-77D885EFC149}" name="Table4" displayName="Table4" ref="A1:B20" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:B20" xr:uid="{7A99C66B-9D21-EF41-A8F7-B715725DAE20}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69706B1A-C419-DC49-96CB-77D885EFC149}" name="Table4" displayName="Table4" ref="A1:B19" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:B19" xr:uid="{7A99C66B-9D21-EF41-A8F7-B715725DAE20}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{11898079-10ED-1F40-8444-3F7AC6B28EF8}" name="id"/>
-    <tableColumn id="2" xr3:uid="{DFAD9EE6-582E-824C-B0DA-5B9DAFCD28FF}" name="active_ingredient" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{DFAD9EE6-582E-824C-B0DA-5B9DAFCD28FF}" name="chm_name" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{56EDA9CC-7E1D-4438-81AC-92A9CDAC09F3}" name="Table5" displayName="Table5" ref="A1:A136" totalsRowShown="0">
+  <autoFilter ref="A1:A136" xr:uid="{56EDA9CC-7E1D-4438-81AC-92A9CDAC09F3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A136">
+    <sortCondition ref="A1:A136"/>
+  </sortState>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{8C6E4FFA-F474-4773-8FD6-4B37869908D2}" name="PEST"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1266,17 +1692,17 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -1302,7 +1728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -1310,7 +1736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -1330,7 +1756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -1356,7 +1782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -1376,7 +1802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -1396,7 +1822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -1430,13 +1856,13 @@
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1444,7 +1870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1452,7 +1878,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -1460,7 +1886,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -1468,7 +1894,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1476,7 +1902,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
@@ -1484,7 +1910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>134</v>
       </c>
@@ -1492,7 +1918,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
@@ -1500,7 +1926,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>45</v>
       </c>
@@ -1508,7 +1934,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
@@ -1516,7 +1942,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
@@ -1524,7 +1950,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
@@ -1532,7 +1958,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1540,7 +1966,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="str" cm="1">
         <f t="array" ref="B18:M19">TRANSPOSE(Table_1__3[])</f>
         <v>Active Ingredient</v>
@@ -1579,7 +2005,7 @@
         <v>EPA Registration</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <v>Propiconazole 1.55%</v>
       </c>
@@ -1640,652 +2066,709 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283F9DBA-A53A-40A5-88A6-F5414D758450}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C20"/>
+      <selection activeCell="E2" sqref="E2:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" customWidth="1"/>
-    <col min="5" max="5" width="51.1640625" customWidth="1"/>
-    <col min="6" max="6" width="55.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="34.6640625" customWidth="1"/>
-    <col min="10" max="10" width="40.1640625" customWidth="1"/>
-    <col min="11" max="11" width="19.5" customWidth="1"/>
-    <col min="12" max="12" width="22.5" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" customWidth="1"/>
+    <col min="5" max="5" width="72" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" customWidth="1"/>
+    <col min="7" max="7" width="55.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" customWidth="1"/>
+    <col min="11" max="11" width="40.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" t="s">
+        <v>164</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E15" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F15" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G15" t="s">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L15" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" t="s">
         <v>61</v>
       </c>
-      <c r="G5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="H19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" t="s">
+        <v>153</v>
+      </c>
+      <c r="L20" t="s">
         <v>99</v>
       </c>
-      <c r="M7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" t="s">
-        <v>105</v>
-      </c>
-      <c r="J10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
-      </c>
-      <c r="M10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" t="s">
-        <v>114</v>
-      </c>
-      <c r="K11" t="s">
-        <v>130</v>
-      </c>
-      <c r="M11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" t="s">
-        <v>126</v>
-      </c>
-      <c r="K12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" t="s">
-        <v>136</v>
-      </c>
-      <c r="J13" t="s">
-        <v>137</v>
-      </c>
-      <c r="K13" t="s">
-        <v>138</v>
-      </c>
-      <c r="M13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" t="s">
-        <v>145</v>
-      </c>
-      <c r="K14" t="s">
-        <v>98</v>
-      </c>
-      <c r="M14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" t="s">
-        <v>151</v>
-      </c>
-      <c r="I15" t="s">
-        <v>152</v>
-      </c>
-      <c r="J15" t="s">
-        <v>153</v>
-      </c>
-      <c r="K15" t="s">
-        <v>99</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="N20" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" t="s">
-        <v>163</v>
-      </c>
-      <c r="K16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="K17" t="s">
-        <v>164</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" t="s">
-        <v>173</v>
-      </c>
-      <c r="K18" t="s">
-        <v>164</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" t="s">
-        <v>184</v>
-      </c>
-      <c r="E19" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="K19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>176</v>
-      </c>
-      <c r="B20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2299,175 +2782,2833 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9B39D0-AF16-435C-88E6-FCC6666A501F}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:B20"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="6">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="7">
+        <v>8</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="7">
+        <v>6</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="6">
+        <v>6</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="7">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="7">
+        <v>8</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF1B4B6-86DD-4300-8117-5506E793BCF3}">
+  <dimension ref="C7:L371"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="4:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="4:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="4:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="4:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="4:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="4:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="4:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="4:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E23" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" t="s">
+        <v>262</v>
+      </c>
+      <c r="G23" t="s">
+        <v>263</v>
+      </c>
+      <c r="H23" t="s">
+        <v>203</v>
+      </c>
+      <c r="I23" t="s">
+        <v>264</v>
+      </c>
+      <c r="J23" t="s">
+        <v>265</v>
+      </c>
+      <c r="K23" t="s">
+        <v>266</v>
+      </c>
+      <c r="L23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C24" t="str" cm="1">
+        <f t="array" ref="C24:C371">TRIM(TRANSPOSE(D23:MM23))</f>
+        <v>Armyworms</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C25" t="str">
+        <v>Caterpillars</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C26" t="str">
+        <v>Cutworms</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C27" t="str">
+        <v>Fire Ants</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C28" t="str">
+        <v>Leafminers</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C29" t="str">
+        <v>Leafroller</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C30" t="str">
+        <v>Thrips</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C31" t="str">
+        <v>Tent Caterpillars</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C32" t="str">
+        <v>and others</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C197" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C200" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C201" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C202" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C203" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C204" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C205" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C206" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C207" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C208" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C209" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C212" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C213" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C215" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C216" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C217" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C218" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C219" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C220" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C221" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C222" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C223" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C224" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C225" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C227" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C228" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C229" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C230" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C231" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C232" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C233" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C234" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C235" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C236" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C237" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C238" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C239" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C240" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C242" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C244" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C245" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C246" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C247" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C248" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C249" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C250" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C251" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C252" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C253" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C254" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C255" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C256" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C257" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C258" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C259" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C260" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C261" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C262" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C263" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C264" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C265" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C266" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C267" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C268" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C269" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C270" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C271" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C272" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C278" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C284" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C289" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C290" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C292" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C293" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C294" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C295" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C296" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C299" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C300" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C302" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C304" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C306" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C308" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C310" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C311" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C312" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C314" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C315" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C316" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C317" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C318" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C319" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C320" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C326" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C328" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C329" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C330" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C331" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C332" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C333" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C334" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C335" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C336" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C337" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C338" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C339" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C340" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C341" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C342" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C343" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C344" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C345" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C346" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C347" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C348" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C349" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C350" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C352" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C353" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C354" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C355" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C356" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C357" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C358" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C359" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C360" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C361" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C362" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C363" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C364" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C365" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C366" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C367" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C368" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C369" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C370" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C371" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B155E02A-6989-47AF-880C-483521A91258}">
+  <dimension ref="A1:A128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="77.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>199</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>3</v>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
